--- a/mt2025.xlsx
+++ b/mt2025.xlsx
@@ -2470,7 +2470,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>202510448</v>
+        <v>202510447</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>202510506</v>
+        <v>202510505</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>202510507</v>
+        <v>202510506</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>202510508</v>
+        <v>202510507</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>202510509</v>
+        <v>202510508</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>202510510</v>
+        <v>202510509</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>202510511</v>
+        <v>202510510</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>202510512</v>
+        <v>202510511</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>202510514</v>
+        <v>202510512</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>202510515</v>
+        <v>202510513</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>202510516</v>
+        <v>202510514</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>202510517</v>
+        <v>202510515</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>202510518</v>
+        <v>202510516</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>202510519</v>
+        <v>202510517</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>202510520</v>
+        <v>202510518</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>202510521</v>
+        <v>202510519</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>202510522</v>
+        <v>202510520</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>202510523</v>
+        <v>202510521</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>202510524</v>
+        <v>202510522</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>202510525</v>
+        <v>202510523</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>202510526</v>
+        <v>202510524</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>202510527</v>
+        <v>202510525</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>202510528</v>
+        <v>202510526</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>202510529</v>
+        <v>202510527</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>202510530</v>
+        <v>202510528</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>202510531</v>
+        <v>202510529</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>202510532</v>
+        <v>202510530</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>202510533</v>
+        <v>202510531</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>202510534</v>
+        <v>202510532</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>202510535</v>
+        <v>202510533</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>202510536</v>
+        <v>202510534</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>202510537</v>
+        <v>202510535</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>202510538</v>
+        <v>202510536</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>202510539</v>
+        <v>202510537</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>202510541</v>
+        <v>202510538</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>202510542</v>
+        <v>202510539</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>202510543</v>
+        <v>202510540</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>202510544</v>
+        <v>202510541</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>202510545</v>
+        <v>202510542</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>202510547</v>
+        <v>202510543</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2945,11 +2945,21 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>202510548</v>
+        <v>202510544</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>庄梓莹</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>202510545</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>周姜依</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3945,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>202510745</v>
+        <v>202510744</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3945,7 +3955,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>202510746</v>
+        <v>202510745</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3955,7 +3965,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>202510747</v>
+        <v>202510746</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3965,7 +3975,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>202510748</v>
+        <v>202510747</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
